--- a/project_Documenten/checklist pva .xlsx
+++ b/project_Documenten/checklist pva .xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2013-2014\excel\Klas 2\Project 1 Barroc-IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d2106\Documents\niv4\2017-2018\project\Barroc-IT-Groep-2\project_Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t xml:space="preserve">A Algemeen, lay-out en taalgebruik van het plan van aanpak </t>
   </si>
@@ -294,12 +294,18 @@
   </si>
   <si>
     <t>Checklist Plan van Aanpak</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -595,6 +601,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -630,6 +653,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -805,11 +845,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +887,9 @@
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
@@ -856,7 +898,9 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C10">
         <v>1</v>
       </c>
@@ -869,7 +913,9 @@
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C12">
         <v>1</v>
       </c>
@@ -878,7 +924,9 @@
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
@@ -887,7 +935,9 @@
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C14">
         <v>1</v>
       </c>
@@ -896,7 +946,9 @@
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C15">
         <v>1</v>
       </c>
@@ -905,7 +957,9 @@
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C16">
         <v>1</v>
       </c>
@@ -924,7 +978,9 @@
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C19">
         <v>1</v>
       </c>
@@ -933,7 +989,9 @@
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C20">
         <v>1</v>
       </c>
@@ -942,7 +1000,9 @@
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C21">
         <v>1</v>
       </c>
@@ -951,7 +1011,9 @@
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C22">
         <v>1</v>
       </c>
@@ -960,7 +1022,9 @@
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C23">
         <v>1</v>
       </c>
@@ -979,7 +1043,9 @@
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C26">
         <v>1</v>
       </c>
@@ -988,7 +1054,9 @@
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C27">
         <v>1</v>
       </c>
@@ -997,7 +1065,9 @@
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C28">
         <v>1</v>
       </c>
@@ -1006,7 +1076,9 @@
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C29">
         <v>1</v>
       </c>
@@ -1015,7 +1087,9 @@
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
@@ -1024,7 +1098,9 @@
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C31">
         <v>1</v>
       </c>
@@ -1033,7 +1109,9 @@
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="C32" s="6">
         <v>1</v>
       </c>
@@ -1062,7 +1140,9 @@
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C37">
         <v>1</v>
       </c>
@@ -1071,7 +1151,9 @@
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C38">
         <v>1</v>
       </c>
@@ -1080,7 +1162,9 @@
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C39">
         <v>1</v>
       </c>
@@ -1089,7 +1173,9 @@
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="C40">
         <v>1</v>
       </c>
@@ -1104,7 +1190,9 @@
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C42">
         <v>1</v>
       </c>
@@ -1113,7 +1201,9 @@
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C43">
         <v>1</v>
       </c>
@@ -1122,7 +1212,9 @@
       <c r="A44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="C44">
         <v>1</v>
       </c>
@@ -1141,7 +1233,9 @@
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="C47">
         <v>1</v>
       </c>
@@ -1150,7 +1244,9 @@
       <c r="A48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="C48">
         <v>1</v>
       </c>
@@ -1159,7 +1255,9 @@
       <c r="A49" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="C49">
         <v>1</v>
       </c>
@@ -1168,7 +1266,9 @@
       <c r="A50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="13"/>
+      <c r="B50" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="C50">
         <v>1</v>
       </c>
@@ -1177,7 +1277,9 @@
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="C51">
         <v>1</v>
       </c>
@@ -1675,7 +1777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1687,7 +1789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1699,12 +1801,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1753,6 +1849,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1763,13 +1865,32 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0A3F64-43C4-4516-B7CB-A76F5930C263}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0A3F64-43C4-4516-B7CB-A76F5930C263}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4B3EB1-E67D-4B64-B435-42996348D439}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4B3EB1-E67D-4B64-B435-42996348D439}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/project_Documenten/checklist pva .xlsx
+++ b/project_Documenten/checklist pva .xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d2106\Documents\niv4\2017-2018\project\Barroc-IT-Groep-2\project_Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Documents\GitKraken\Barroc-IT-Groep-2\project_documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t xml:space="preserve">A Algemeen, lay-out en taalgebruik van het plan van aanpak </t>
   </si>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -503,10 +503,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,23 +601,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -653,23 +636,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -845,45 +811,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:3" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="18"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -894,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -905,11 +871,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -920,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -931,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -942,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -953,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -964,17 +930,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -985,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -996,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1005,7 @@
       </c>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1072,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1083,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1094,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1102,7 @@
       </c>
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -1169,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
@@ -1180,13 +1146,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="20"/>
     </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -1197,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
@@ -1208,12 +1174,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1229,7 +1195,7 @@
       </c>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -1240,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>35</v>
       </c>
@@ -1251,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>36</v>
       </c>
@@ -1262,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>37</v>
       </c>
@@ -1273,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
@@ -1294,38 +1260,46 @@
       </c>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="13"/>
+      <c r="B55" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="13"/>
+      <c r="B57" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C57">
         <v>1</v>
       </c>
@@ -1340,29 +1314,35 @@
       </c>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C62">
         <v>1</v>
       </c>
@@ -1377,7 +1357,7 @@
       </c>
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>49</v>
       </c>
@@ -1386,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
@@ -1395,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>51</v>
       </c>
@@ -1404,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1417,13 +1397,13 @@
       <c r="A69" s="4"/>
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>54</v>
       </c>
@@ -1432,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>55</v>
       </c>
@@ -1441,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>56</v>
       </c>
@@ -1450,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>57</v>
       </c>
@@ -1459,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
@@ -1468,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>59</v>
       </c>
@@ -1477,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>60</v>
       </c>
@@ -1486,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
@@ -1495,73 +1475,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="13"/>
+      <c r="B83" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="13"/>
+      <c r="B84" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="13"/>
+      <c r="B85" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="13"/>
+      <c r="B86" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>69</v>
       </c>
@@ -1570,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>70</v>
       </c>
@@ -1579,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>71</v>
       </c>
@@ -1588,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>72</v>
       </c>
@@ -1597,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>73</v>
       </c>
@@ -1606,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>74</v>
       </c>
@@ -1615,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>75</v>
       </c>
@@ -1624,17 +1612,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="12"/>
     </row>
-    <row r="97" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B97" s="12"/>
     </row>
-    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>77</v>
       </c>
@@ -1643,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>78</v>
       </c>
@@ -1652,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>79</v>
       </c>
@@ -1661,17 +1649,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="12"/>
     </row>
-    <row r="102" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B102" s="12"/>
     </row>
-    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>81</v>
       </c>
@@ -1680,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>82</v>
       </c>
@@ -1689,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>83</v>
       </c>
@@ -1698,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>84</v>
       </c>
@@ -1707,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>85</v>
       </c>
@@ -1716,17 +1704,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>87</v>
       </c>
@@ -1735,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>88</v>
       </c>
@@ -1748,7 +1736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>89</v>
       </c>
@@ -1777,30 +1765,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1849,12 +1843,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1865,6 +1853,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0A3F64-43C4-4516-B7CB-A76F5930C263}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1879,14 +1875,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4B3EB1-E67D-4B64-B435-42996348D439}">
   <ds:schemaRefs>

--- a/project_Documenten/checklist pva .xlsx
+++ b/project_Documenten/checklist pva .xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t xml:space="preserve">A Algemeen, lay-out en taalgebruik van het plan van aanpak </t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>v</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -814,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1197,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1211,7 +1208,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1222,7 +1219,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1233,7 +1230,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1244,7 +1241,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1789,12 +1786,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1843,6 +1834,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1853,14 +1850,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0A3F64-43C4-4516-B7CB-A76F5930C263}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1875,6 +1864,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4B3EB1-E67D-4B64-B435-42996348D439}">
   <ds:schemaRefs>

--- a/project_Documenten/checklist pva .xlsx
+++ b/project_Documenten/checklist pva .xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t xml:space="preserve">A Algemeen, lay-out en taalgebruik van het plan van aanpak </t>
   </si>
@@ -812,7 +812,7 @@
   <dimension ref="A2:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,9 @@
       <c r="A65" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C65">
         <v>1</v>
       </c>
@@ -1367,7 +1369,9 @@
       <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="13"/>
+      <c r="B66" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C66">
         <v>1</v>
       </c>
@@ -1376,7 +1380,9 @@
       <c r="A67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C67">
         <v>1</v>
       </c>
@@ -1385,7 +1391,9 @@
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="13"/>
+      <c r="B68" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C68">
         <v>1</v>
       </c>
@@ -1404,7 +1412,9 @@
       <c r="A71" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="13"/>
+      <c r="B71" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C71">
         <v>1</v>
       </c>
@@ -1413,7 +1423,9 @@
       <c r="A72" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C72">
         <v>1</v>
       </c>
@@ -1422,7 +1434,9 @@
       <c r="A73" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C73">
         <v>1</v>
       </c>
@@ -1431,7 +1445,9 @@
       <c r="A74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C74">
         <v>1</v>
       </c>
@@ -1440,7 +1456,9 @@
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C75">
         <v>1</v>
       </c>
@@ -1449,7 +1467,9 @@
       <c r="A76" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="13"/>
+      <c r="B76" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C76">
         <v>1</v>
       </c>
@@ -1458,7 +1478,9 @@
       <c r="A77" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="13"/>
+      <c r="B77" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C77">
         <v>1</v>
       </c>
@@ -1467,7 +1489,9 @@
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="13"/>
+      <c r="B78" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C78">
         <v>1</v>
       </c>
@@ -1550,7 +1574,9 @@
       <c r="A89" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B89" s="13"/>
+      <c r="B89" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C89">
         <v>1</v>
       </c>
@@ -1559,7 +1585,9 @@
       <c r="A90" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="13"/>
+      <c r="B90" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C90">
         <v>1</v>
       </c>
@@ -1568,7 +1596,9 @@
       <c r="A91" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B91" s="13"/>
+      <c r="B91" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C91">
         <v>1</v>
       </c>
@@ -1577,7 +1607,9 @@
       <c r="A92" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B92" s="13"/>
+      <c r="B92" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C92">
         <v>1</v>
       </c>
@@ -1586,7 +1618,9 @@
       <c r="A93" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="13"/>
+      <c r="B93" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C93">
         <v>1</v>
       </c>
@@ -1595,7 +1629,9 @@
       <c r="A94" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="13"/>
+      <c r="B94" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C94">
         <v>1</v>
       </c>
@@ -1604,7 +1640,9 @@
       <c r="A95" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="13"/>
+      <c r="B95" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C95">
         <v>1</v>
       </c>
@@ -1623,7 +1661,9 @@
       <c r="A98" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C98">
         <v>1</v>
       </c>
@@ -1632,7 +1672,9 @@
       <c r="A99" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B99" s="13"/>
+      <c r="B99" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C99">
         <v>1</v>
       </c>
@@ -1641,7 +1683,9 @@
       <c r="A100" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B100" s="13"/>
+      <c r="B100" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C100">
         <v>1</v>
       </c>
@@ -1660,7 +1704,9 @@
       <c r="A103" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B103" s="13"/>
+      <c r="B103" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C103">
         <v>1</v>
       </c>
@@ -1669,7 +1715,9 @@
       <c r="A104" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B104" s="13"/>
+      <c r="B104" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C104">
         <v>1</v>
       </c>
@@ -1678,7 +1726,9 @@
       <c r="A105" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B105" s="13"/>
+      <c r="B105" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C105">
         <v>1</v>
       </c>
@@ -1687,7 +1737,9 @@
       <c r="A106" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B106" s="13"/>
+      <c r="B106" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C106">
         <v>1</v>
       </c>
@@ -1696,7 +1748,9 @@
       <c r="A107" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B107" s="13"/>
+      <c r="B107" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C107">
         <v>1</v>
       </c>
@@ -1715,7 +1769,9 @@
       <c r="A110" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B110" s="16"/>
+      <c r="B110" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="C110">
         <v>1</v>
       </c>
@@ -1786,6 +1842,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1834,12 +1896,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1850,6 +1906,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0A3F64-43C4-4516-B7CB-A76F5930C263}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1864,14 +1928,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4B3EB1-E67D-4B64-B435-42996348D439}">
   <ds:schemaRefs>
